--- a/src/files/plantillas/campañaIntensamente.xlsx
+++ b/src/files/plantillas/campañaIntensamente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAGGAAC-SOPORTE\Documents\GitHub\api-whatsapp-ts-main\src\files\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547ADDD-97A9-4FD4-A84F-F16BFC826625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED078AA3-A3C7-4EC9-8E78-ACFF794FED00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DDC511B6-D51C-4D4E-9462-F9681B7CA74C}"/>
   </bookViews>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F23900-D3C6-418E-A625-68F9A5B819E0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
